--- a/teaching/traditional_assets/database/data/saudi_arabia/saudi_arabia_food_wholesalers.xlsx
+++ b/teaching/traditional_assets/database/data/saudi_arabia/saudi_arabia_food_wholesalers.xlsx
@@ -591,76 +591,76 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.3779999999999999</v>
+        <v>-0.377</v>
       </c>
       <c r="G2">
-        <v>0.5858585858585859</v>
+        <v>-0.7633928571428571</v>
       </c>
       <c r="H2">
-        <v>0.5858585858585859</v>
+        <v>-0.7633928571428571</v>
       </c>
       <c r="I2">
-        <v>-1.259259259259259</v>
+        <v>-2.004464285714286</v>
       </c>
       <c r="J2">
-        <v>-1.259259259259259</v>
+        <v>-1.002232142857143</v>
       </c>
       <c r="K2">
-        <v>-5.21</v>
+        <v>-23.5</v>
       </c>
       <c r="L2">
-        <v>-1.754208754208754</v>
+        <v>-10.49107142857143</v>
       </c>
       <c r="M2">
+        <v>0.001</v>
+      </c>
+      <c r="N2">
+        <v>3.883495145631068e-06</v>
+      </c>
+      <c r="O2">
+        <v>-4.25531914893617e-05</v>
+      </c>
+      <c r="P2">
+        <v>0.001</v>
+      </c>
+      <c r="Q2">
+        <v>3.883495145631068e-06</v>
+      </c>
+      <c r="R2">
+        <v>-4.25531914893617e-05</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0.515</v>
+      </c>
+      <c r="V2">
         <v>0.002</v>
       </c>
-      <c r="N2">
-        <v>3.012048192771084e-05</v>
-      </c>
-      <c r="O2">
-        <v>-0.0003838771593090211</v>
-      </c>
-      <c r="P2">
-        <v>0.002</v>
-      </c>
-      <c r="Q2">
-        <v>3.012048192771084e-05</v>
-      </c>
-      <c r="R2">
-        <v>-0.0003838771593090211</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0.384</v>
-      </c>
-      <c r="V2">
-        <v>0.005783132530120481</v>
-      </c>
       <c r="W2">
-        <v>-0.1569277108433735</v>
+        <v>-0.8576642335766423</v>
       </c>
       <c r="X2">
-        <v>0.04975999828771149</v>
+        <v>0.03855815202421761</v>
       </c>
       <c r="Y2">
-        <v>-0.206687709131085</v>
+        <v>-0.89622238560086</v>
       </c>
       <c r="Z2">
-        <v>0.09179699573468504</v>
+        <v>0.08291382884216762</v>
       </c>
       <c r="AA2">
-        <v>-0.1155962168510849</v>
+        <v>-0.08309890435297602</v>
       </c>
       <c r="AB2">
-        <v>0.04975999828771149</v>
+        <v>0.03855815202421761</v>
       </c>
       <c r="AC2">
-        <v>-0.1653562151387963</v>
+        <v>-0.1216570563771936</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>-0.384</v>
+        <v>-0.515</v>
       </c>
       <c r="AH2">
         <v>0</v>
@@ -681,28 +681,22 @@
         <v>0</v>
       </c>
       <c r="AJ2">
-        <v>-0.0058167716917111</v>
+        <v>-0.002004008016032064</v>
       </c>
       <c r="AK2">
-        <v>-0.01421379923008588</v>
+        <v>-0.1539611360239163</v>
       </c>
       <c r="AL2">
-        <v>0.012</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.012</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>0</v>
-      </c>
-      <c r="AO2">
-        <v>-311.6666666666667</v>
+        <v>-0</v>
       </c>
       <c r="AP2">
-        <v>-3.764705882352942</v>
-      </c>
-      <c r="AQ2">
-        <v>-311.6666666666667</v>
+        <v>0.1458923512747876</v>
       </c>
     </row>
     <row r="3">
@@ -722,76 +716,76 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.3779999999999999</v>
+        <v>-0.377</v>
       </c>
       <c r="G3">
-        <v>0.5858585858585859</v>
+        <v>-0.7633928571428571</v>
       </c>
       <c r="H3">
-        <v>0.5858585858585859</v>
+        <v>-0.7633928571428571</v>
       </c>
       <c r="I3">
-        <v>-1.259259259259259</v>
+        <v>-2.004464285714286</v>
       </c>
       <c r="J3">
-        <v>-1.259259259259259</v>
+        <v>-1.002232142857143</v>
       </c>
       <c r="K3">
-        <v>-5.21</v>
+        <v>-23.5</v>
       </c>
       <c r="L3">
-        <v>-1.754208754208754</v>
+        <v>-10.49107142857143</v>
       </c>
       <c r="M3">
+        <v>0.001</v>
+      </c>
+      <c r="N3">
+        <v>3.883495145631068e-06</v>
+      </c>
+      <c r="O3">
+        <v>-4.25531914893617e-05</v>
+      </c>
+      <c r="P3">
+        <v>0.001</v>
+      </c>
+      <c r="Q3">
+        <v>3.883495145631068e-06</v>
+      </c>
+      <c r="R3">
+        <v>-4.25531914893617e-05</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0.515</v>
+      </c>
+      <c r="V3">
         <v>0.002</v>
       </c>
-      <c r="N3">
-        <v>3.012048192771084e-05</v>
-      </c>
-      <c r="O3">
-        <v>-0.0003838771593090211</v>
-      </c>
-      <c r="P3">
-        <v>0.002</v>
-      </c>
-      <c r="Q3">
-        <v>3.012048192771084e-05</v>
-      </c>
-      <c r="R3">
-        <v>-0.0003838771593090211</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0.384</v>
-      </c>
-      <c r="V3">
-        <v>0.005783132530120481</v>
-      </c>
       <c r="W3">
-        <v>-0.1569277108433735</v>
+        <v>-0.8576642335766423</v>
       </c>
       <c r="X3">
-        <v>0.04975999828771149</v>
+        <v>0.03855815202421761</v>
       </c>
       <c r="Y3">
-        <v>-0.206687709131085</v>
+        <v>-0.89622238560086</v>
       </c>
       <c r="Z3">
-        <v>0.09179699573468504</v>
+        <v>0.08291382884216762</v>
       </c>
       <c r="AA3">
-        <v>-0.1155962168510849</v>
+        <v>-0.08309890435297602</v>
       </c>
       <c r="AB3">
-        <v>0.04975999828771149</v>
+        <v>0.03855815202421761</v>
       </c>
       <c r="AC3">
-        <v>-0.1653562151387963</v>
+        <v>-0.1216570563771936</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -803,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>-0.384</v>
+        <v>-0.515</v>
       </c>
       <c r="AH3">
         <v>0</v>
@@ -812,28 +806,22 @@
         <v>0</v>
       </c>
       <c r="AJ3">
-        <v>-0.0058167716917111</v>
+        <v>-0.002004008016032064</v>
       </c>
       <c r="AK3">
-        <v>-0.01421379923008588</v>
+        <v>-0.1539611360239163</v>
       </c>
       <c r="AL3">
-        <v>0.012</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.012</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>0</v>
-      </c>
-      <c r="AO3">
-        <v>-311.6666666666667</v>
+        <v>-0</v>
       </c>
       <c r="AP3">
-        <v>-3.764705882352942</v>
-      </c>
-      <c r="AQ3">
-        <v>-311.6666666666667</v>
+        <v>0.1458923512747876</v>
       </c>
     </row>
   </sheetData>
